--- a/Casella and Souillard (2022) - Main results.xlsx
+++ b/Casella and Souillard (2022) - Main results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\PAPERS\PILLAR2 UNCTAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B64592-3B88-4853-905C-C486379056F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8273887-28AD-43E4-A3DD-00C393150CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="4380" windowWidth="28800" windowHeight="15345" xr2:uid="{4D52508C-814D-49E5-A9FC-4FFFE2387BF9}"/>
+    <workbookView xWindow="9600" yWindow="4560" windowWidth="28800" windowHeight="15345" xr2:uid="{4D52508C-814D-49E5-A9FC-4FFFE2387BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>Linear decline in PS</t>
   </si>
   <si>
-    <t>No carve-out</t>
-  </si>
-  <si>
-    <t>With carve-out</t>
-  </si>
-  <si>
     <t>Elimination of PS</t>
   </si>
   <si>
@@ -135,6 +129,12 @@
   <si>
     <t>Details on the construction of these variables are provided in the paper.</t>
   </si>
+  <si>
+    <t>No substance-based carve-out</t>
+  </si>
+  <si>
+    <t>With substance-based carve-out</t>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,13 +167,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -212,12 +205,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -246,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -428,28 +421,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -464,7 +453,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -473,7 +462,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -485,7 +474,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,7 +489,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,34 +510,34 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,7 +856,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:K18"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -887,56 +876,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H2" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="10"/>
+      <c r="H2" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="11"/>
+      <c r="H3" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="39" t="s">
+      <c r="F4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="39" t="s">
+      <c r="J4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="46" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="2"/>
@@ -945,191 +934,191 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>25.606701176102536</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>17.32</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>14.999669879376546</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>16.559999999999999</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>11.940000000000001</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>2.9924133349269133</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>2.4498395392938752</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <v>2.5678258146798973</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="16">
         <v>2.0252520190468499</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="19">
+        <v>12</v>
+      </c>
+      <c r="C6" s="17">
         <v>25.352113542031901</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>15.01</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>13.132359569583199</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>15.690000000000001</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>10.91</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <v>2.9896789119714202</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="21">
         <v>2.6601189881957099</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
         <v>2.4060102020615655</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="23">
         <v>2.1186495628179407</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="26">
+        <v>13</v>
+      </c>
+      <c r="C7" s="24">
         <v>26.234429785979881</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <v>23.01</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>19.603837356933635</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="26">
         <v>18.240000000000002</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="25">
         <v>14.48</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="27">
         <v>3.0230008873320195</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="28">
         <v>1.8926983322798701</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="27">
         <v>2.9668094099992803</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="28">
         <v>1.7949646740569547</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="19">
+        <v>14</v>
+      </c>
+      <c r="C8" s="17">
         <v>28.160015498161044</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>25.59</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>22.182609075460899</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>17.39</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <v>13.819999999999999</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="22">
         <v>3.4088918684086451</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="23">
         <v>2.0588465673557601</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="22">
         <v>3.1476602443377097</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="23">
         <v>1.7976149432848272</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="31">
+        <v>15</v>
+      </c>
+      <c r="C9" s="29">
         <v>24.020770406009305</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="30">
         <v>22.29</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="30">
         <v>19.571863134445312</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="31">
         <v>16.66</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="30">
         <v>12.5</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="32">
         <v>2.4071241377255572</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="21">
         <v>1.6331363470822899</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="32">
         <v>2.351545244781633</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="21">
         <v>1.5487063491197539</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="26">
+        <v>16</v>
+      </c>
+      <c r="C10" s="24">
         <v>30.47249535841075</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>23.39</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>18.583448322359274</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <v>23.369999999999997</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25">
         <v>18.57</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="27">
         <v>4.1742601527247514</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="28">
         <v>2.3110634609174299</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="27">
         <v>4.1104117019901372</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="28">
         <v>2.247215010182829</v>
       </c>
     </row>
@@ -1137,151 +1126,151 @@
       <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="31">
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="29">
         <v>28.672212876065633</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="30">
         <v>25.38</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="30">
         <v>20.099214869473588</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="31">
         <v>24.4</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="31">
         <v>18.82</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="20">
         <v>5.3511119034798842</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>2.975145134890496</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="32">
         <v>4.8965359945781186</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="21">
         <v>2.5205692259887233</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="26">
+        <v>18</v>
+      </c>
+      <c r="C13" s="24">
         <v>17.382617011081063</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>5.44</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>5.4376131744499396</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <v>0</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <v>0</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="35">
         <v>7.2571812333594217</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="28">
         <v>7.2588932585816446</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="27">
         <v>4.3546814191753107</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="28">
         <v>4.3543087400156564</v>
       </c>
     </row>
-    <row r="15" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="44" t="s">
+    <row r="15" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="I15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="J15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="K15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="16" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+    <row r="16" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="B17" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
+      <c r="B18" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:D13">
@@ -1295,10 +1284,26 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C31DF823F25FE54FB3BFAC954D5E2B00" ma:contentTypeVersion="7" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="679cb99b9e5630142701de7d03b5749d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3a0186b2-b8d8-4ad6-a5f9-c583d6c7da2c" xmlns:ns4="177e39fb-3432-473b-8975-2cf9143fbeda" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6168785440b085e71a051a8ace1004c" ns3:_="" ns4:_="">
     <xsd:import namespace="3a0186b2-b8d8-4ad6-a5f9-c583d6c7da2c"/>
@@ -1483,22 +1488,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FED536F3-C439-4A89-B8AD-02372B157D56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3a0186b2-b8d8-4ad6-a5f9-c583d6c7da2c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="177e39fb-3432-473b-8975-2cf9143fbeda"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1204727A-0C4A-48EC-BED4-9BF5FC8EC760}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A64769F5-46EA-4317-A5E6-E9057D3B7F7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1515,29 +1530,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1204727A-0C4A-48EC-BED4-9BF5FC8EC760}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FED536F3-C439-4A89-B8AD-02372B157D56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3a0186b2-b8d8-4ad6-a5f9-c583d6c7da2c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="177e39fb-3432-473b-8975-2cf9143fbeda"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Casella and Souillard (2022) - Main results.xlsx
+++ b/Casella and Souillard (2022) - Main results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\PAPERS\PILLAR2 UNCTAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BaptisteS/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8273887-28AD-43E4-A3DD-00C393150CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81D1598-48D9-0344-AAB1-BA4D8C679D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4560" windowWidth="28800" windowHeight="15345" xr2:uid="{4D52508C-814D-49E5-A9FC-4FFFE2387BF9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D52508C-814D-49E5-A9FC-4FFFE2387BF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Pillar 2 &amp; fiscal cost of FDI" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,18 +46,6 @@
     <t>Global</t>
   </si>
   <si>
-    <t>Linear decline in PS</t>
-  </si>
-  <si>
-    <t>Elimination of PS</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>ETR</t>
-  </si>
-  <si>
     <t>FDI-level ETR</t>
   </si>
   <si>
@@ -97,10 +84,6 @@
   <si>
     <t>Outward profit shifting
 share pre-Pillar II</t>
-  </si>
-  <si>
-    <t>Outward profit shifting share post-Pillar II
-(Conservative scenario)</t>
   </si>
   <si>
     <r>
@@ -130,10 +113,28 @@
     <t>Details on the construction of these variables are provided in the paper.</t>
   </si>
   <si>
-    <t>No substance-based carve-out</t>
-  </si>
-  <si>
     <t>With substance-based carve-out</t>
+  </si>
+  <si>
+    <t>Statutory tax rate (STR)</t>
+  </si>
+  <si>
+    <t>Effective tax rate (ETR)</t>
+  </si>
+  <si>
+    <t>Elimination of
+profit shifting</t>
+  </si>
+  <si>
+    <t>Linear decline in profit
+shifting (conservative scenario)</t>
+  </si>
+  <si>
+    <t>Without substance-based carve-out</t>
+  </si>
+  <si>
+    <t>Outward profit shifting share post-Pillar II - Linear decline
+in profit shifting (conservative scenario)</t>
   </si>
 </sst>
 </file>
@@ -143,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,11 +172,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,10 +185,33 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -217,25 +236,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,123 +440,123 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,7 +576,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -853,98 +872,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A82277B-CC1E-45B1-8ECA-BF901F5BA12C}">
-  <dimension ref="B2:L18"/>
+  <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="26.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H2" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="9"/>
+    <row r="2" spans="1:12">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="43" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="43"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="47"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="45" t="s">
+    <row r="4" spans="1:12" ht="28">
+      <c r="A4" s="10"/>
+      <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="46" t="s">
+      <c r="E4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>3</v>
+      <c r="G4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>22</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="10"/>
+      <c r="B5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="31">
         <v>25.606701176102536</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="16">
         <v>17.32</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="F5" s="16">
         <v>14.999669879376546</v>
-      </c>
-      <c r="F5" s="14">
-        <v>16.559999999999999</v>
       </c>
       <c r="G5" s="13">
         <v>11.940000000000001</v>
@@ -962,315 +995,323 @@
         <v>2.0252520190468499</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="10"/>
+      <c r="B6" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="32">
+        <v>25.352113542031901</v>
+      </c>
+      <c r="D6" s="22">
+        <v>15.01</v>
+      </c>
+      <c r="E6" s="18">
+        <v>15.690000000000001</v>
+      </c>
+      <c r="F6" s="22">
+        <v>13.132359569583199</v>
+      </c>
+      <c r="G6" s="17">
+        <v>10.91</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2.9896789119714202</v>
+      </c>
+      <c r="I6" s="20">
+        <v>2.6601189881957099</v>
+      </c>
+      <c r="J6" s="21">
+        <v>2.4060102020615655</v>
+      </c>
+      <c r="K6" s="22">
+        <v>2.1186495628179407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10"/>
+      <c r="B7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="33">
+        <v>26.234429785979881</v>
+      </c>
+      <c r="D7" s="26">
+        <v>23.01</v>
+      </c>
+      <c r="E7" s="24">
+        <v>18.240000000000002</v>
+      </c>
+      <c r="F7" s="26">
+        <v>19.603837356933635</v>
+      </c>
+      <c r="G7" s="23">
+        <v>14.48</v>
+      </c>
+      <c r="H7" s="25">
+        <v>3.0230008873320195</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1.8926983322798701</v>
+      </c>
+      <c r="J7" s="25">
+        <v>2.9668094099992803</v>
+      </c>
+      <c r="K7" s="26">
+        <v>1.7949646740569547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10"/>
+      <c r="B8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="32">
+        <v>28.160015498161044</v>
+      </c>
+      <c r="D8" s="22">
+        <v>25.59</v>
+      </c>
+      <c r="E8" s="18">
+        <v>17.39</v>
+      </c>
+      <c r="F8" s="22">
+        <v>22.182609075460899</v>
+      </c>
+      <c r="G8" s="17">
+        <v>13.819999999999999</v>
+      </c>
+      <c r="H8" s="21">
+        <v>3.4088918684086451</v>
+      </c>
+      <c r="I8" s="22">
+        <v>2.0588465673557601</v>
+      </c>
+      <c r="J8" s="21">
+        <v>3.1476602443377097</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1.7976149432848272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10"/>
+      <c r="B9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="34">
+        <v>24.020770406009305</v>
+      </c>
+      <c r="D9" s="20">
+        <v>22.29</v>
+      </c>
+      <c r="E9" s="28">
+        <v>16.66</v>
+      </c>
+      <c r="F9" s="20">
+        <v>19.571863134445312</v>
+      </c>
+      <c r="G9" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="H9" s="29">
+        <v>2.4071241377255572</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1.6331363470822899</v>
+      </c>
+      <c r="J9" s="29">
+        <v>2.351545244781633</v>
+      </c>
+      <c r="K9" s="20">
+        <v>1.5487063491197539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="10"/>
+      <c r="B10" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17">
-        <v>25.352113542031901</v>
-      </c>
-      <c r="D6" s="18">
-        <v>15.01</v>
-      </c>
-      <c r="E6" s="18">
-        <v>13.132359569583199</v>
-      </c>
-      <c r="F6" s="19">
-        <v>15.690000000000001</v>
-      </c>
-      <c r="G6" s="18">
-        <v>10.91</v>
-      </c>
-      <c r="H6" s="20">
-        <v>2.9896789119714202</v>
-      </c>
-      <c r="I6" s="21">
-        <v>2.6601189881957099</v>
-      </c>
-      <c r="J6" s="22">
-        <v>2.4060102020615655</v>
-      </c>
-      <c r="K6" s="23">
-        <v>2.1186495628179407</v>
+      <c r="C10" s="33">
+        <v>30.47249535841075</v>
+      </c>
+      <c r="D10" s="26">
+        <v>23.39</v>
+      </c>
+      <c r="E10" s="24">
+        <v>23.369999999999997</v>
+      </c>
+      <c r="F10" s="26">
+        <v>18.583448322359274</v>
+      </c>
+      <c r="G10" s="23">
+        <v>18.57</v>
+      </c>
+      <c r="H10" s="25">
+        <v>4.1742601527247514</v>
+      </c>
+      <c r="I10" s="26">
+        <v>2.3110634609174299</v>
+      </c>
+      <c r="J10" s="25">
+        <v>4.1104117019901372</v>
+      </c>
+      <c r="K10" s="26">
+        <v>2.247215010182829</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="10"/>
+      <c r="B11" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="10"/>
+      <c r="B12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="24">
-        <v>26.234429785979881</v>
-      </c>
-      <c r="D7" s="25">
-        <v>23.01</v>
-      </c>
-      <c r="E7" s="25">
-        <v>19.603837356933635</v>
-      </c>
-      <c r="F7" s="26">
-        <v>18.240000000000002</v>
-      </c>
-      <c r="G7" s="25">
-        <v>14.48</v>
-      </c>
-      <c r="H7" s="27">
-        <v>3.0230008873320195</v>
-      </c>
-      <c r="I7" s="28">
-        <v>1.8926983322798701</v>
-      </c>
-      <c r="J7" s="27">
-        <v>2.9668094099992803</v>
-      </c>
-      <c r="K7" s="28">
-        <v>1.7949646740569547</v>
+      <c r="C12" s="34">
+        <v>28.672212876065633</v>
+      </c>
+      <c r="D12" s="20">
+        <v>25.38</v>
+      </c>
+      <c r="E12" s="28">
+        <v>24.4</v>
+      </c>
+      <c r="F12" s="20">
+        <v>20.099214869473588</v>
+      </c>
+      <c r="G12" s="28">
+        <v>18.82</v>
+      </c>
+      <c r="H12" s="19">
+        <v>5.3511119034798842</v>
+      </c>
+      <c r="I12" s="20">
+        <v>2.975145134890496</v>
+      </c>
+      <c r="J12" s="29">
+        <v>4.8965359945781186</v>
+      </c>
+      <c r="K12" s="20">
+        <v>2.5205692259887233</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="10"/>
+      <c r="B13" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17">
-        <v>28.160015498161044</v>
-      </c>
-      <c r="D8" s="18">
-        <v>25.59</v>
-      </c>
-      <c r="E8" s="18">
-        <v>22.182609075460899</v>
-      </c>
-      <c r="F8" s="19">
-        <v>17.39</v>
-      </c>
-      <c r="G8" s="18">
-        <v>13.819999999999999</v>
-      </c>
-      <c r="H8" s="22">
-        <v>3.4088918684086451</v>
-      </c>
-      <c r="I8" s="23">
-        <v>2.0588465673557601</v>
-      </c>
-      <c r="J8" s="22">
-        <v>3.1476602443377097</v>
-      </c>
-      <c r="K8" s="23">
-        <v>1.7976149432848272</v>
+      <c r="C13" s="33">
+        <v>17.382617011081063</v>
+      </c>
+      <c r="D13" s="26">
+        <v>5.44</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>5.4376131744499396</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <v>7.2571812333594217</v>
+      </c>
+      <c r="I13" s="26">
+        <v>7.2588932585816446</v>
+      </c>
+      <c r="J13" s="25">
+        <v>4.3546814191753107</v>
+      </c>
+      <c r="K13" s="26">
+        <v>4.3543087400156564</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="29">
-        <v>24.020770406009305</v>
-      </c>
-      <c r="D9" s="30">
-        <v>22.29</v>
-      </c>
-      <c r="E9" s="30">
-        <v>19.571863134445312</v>
-      </c>
-      <c r="F9" s="31">
-        <v>16.66</v>
-      </c>
-      <c r="G9" s="30">
-        <v>12.5</v>
-      </c>
-      <c r="H9" s="32">
-        <v>2.4071241377255572</v>
-      </c>
-      <c r="I9" s="21">
-        <v>1.6331363470822899</v>
-      </c>
-      <c r="J9" s="32">
-        <v>2.351545244781633</v>
-      </c>
-      <c r="K9" s="21">
-        <v>1.5487063491197539</v>
+    <row r="15" spans="1:12">
+      <c r="B15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+    <row r="16" spans="1:12" s="3" customFormat="1">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="24">
-        <v>30.47249535841075</v>
-      </c>
-      <c r="D10" s="25">
-        <v>23.39</v>
-      </c>
-      <c r="E10" s="25">
-        <v>18.583448322359274</v>
-      </c>
-      <c r="F10" s="26">
-        <v>23.369999999999997</v>
-      </c>
-      <c r="G10" s="25">
-        <v>18.57</v>
-      </c>
-      <c r="H10" s="27">
-        <v>4.1742601527247514</v>
-      </c>
-      <c r="I10" s="28">
-        <v>2.3110634609174299</v>
-      </c>
-      <c r="J10" s="27">
-        <v>4.1104117019901372</v>
-      </c>
-      <c r="K10" s="28">
-        <v>2.247215010182829</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="29">
-        <v>28.672212876065633</v>
-      </c>
-      <c r="D12" s="30">
-        <v>25.38</v>
-      </c>
-      <c r="E12" s="30">
-        <v>20.099214869473588</v>
-      </c>
-      <c r="F12" s="31">
-        <v>24.4</v>
-      </c>
-      <c r="G12" s="31">
-        <v>18.82</v>
-      </c>
-      <c r="H12" s="20">
-        <v>5.3511119034798842</v>
-      </c>
-      <c r="I12" s="21">
-        <v>2.975145134890496</v>
-      </c>
-      <c r="J12" s="32">
-        <v>4.8965359945781186</v>
-      </c>
-      <c r="K12" s="21">
-        <v>2.5205692259887233</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="24">
-        <v>17.382617011081063</v>
-      </c>
-      <c r="D13" s="25">
-        <v>5.44</v>
-      </c>
-      <c r="E13" s="25">
-        <v>5.4376131744499396</v>
-      </c>
-      <c r="F13" s="26">
-        <v>0</v>
-      </c>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35">
-        <v>7.2571812333594217</v>
-      </c>
-      <c r="I13" s="28">
-        <v>7.2588932585816446</v>
-      </c>
-      <c r="J13" s="27">
-        <v>4.3546814191753107</v>
-      </c>
-      <c r="K13" s="28">
-        <v>4.3543087400156564</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:D13">
